--- a/biology/Zoologie/Coptodon_louka/Coptodon_louka.xlsx
+++ b/biology/Zoologie/Coptodon_louka/Coptodon_louka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coptodon louka est une espèce de poissons d'eau douce et saumâtre de la famille des Cichlidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson se rencontre en Guinée-Bissau, en Guinée, au Liberia et en Sierra Leone[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson se rencontre en Guinée-Bissau, en Guinée, au Liberia et en Sierra Leone.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coptodon louka peut mesurer jusqu'à 25 cm de longueur totale pour les mâles[2]. Ce poisson possède un patron de coloration bleuté avec un liseré orangé au bord des nageoires. La femelle est un peu plus petite que le mâle[réf. nécessaire].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coptodon louka peut mesurer jusqu'à 25 cm de longueur totale pour les mâles. Ce poisson possède un patron de coloration bleuté avec un liseré orangé au bord des nageoires. La femelle est un peu plus petite que le mâle[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -575,10 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comportement et reproduction
-Les Tilapia sont des poissons de la famille des Cichlidae et donc, par définition, territoriaux. Un couple formé et ayant délimité un territoire, défendra son périmètre de reproduction parfois presque jusqu'à la mort ou jusqu'à la perte total des éventuels œufs, larves et jeunes poissons.
-Maintenance en captivité
-En captivité il est impératif de le maintenir uniquement avec des espèces de provenances et de tailles similaires.
+          <t>Comportement et reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Tilapia sont des poissons de la famille des Cichlidae et donc, par définition, territoriaux. Un couple formé et ayant délimité un territoire, défendra son périmètre de reproduction parfois presque jusqu'à la mort ou jusqu'à la perte total des éventuels œufs, larves et jeunes poissons.
 </t>
         </is>
       </c>
@@ -604,10 +623,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aquariophilie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Maintenance en captivité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En captivité il est impératif de le maintenir uniquement avec des espèces de provenances et de tailles similaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coptodon_louka</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coptodon_louka</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Au Zoo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Aquarium du palais de la Porte Dorée détient un petit groupe de Tilapia louka présenté au public (décembre 2014). Ils sont maintenus dans une immense cuve de poissons d'eau douce africains et en compagnie de plusieurs autres espèces de provenance similaire. Ils sont aisément observables lors d'une promenade dans l'Aquarium.
 </t>
